--- a/config_11.24/activity_year_config.xlsx
+++ b/config_11.24/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>id|行号</t>
   </si>
@@ -376,71 +376,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_030_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_034_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_034_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_034_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>activity_task</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_030_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_034_ldfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_034_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_034_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_034_xyxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_GELBManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_gelb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_hjhhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +883,10 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1582,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -1803,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="N16" s="14">
         <v>1</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>88</v>
@@ -1827,7 +1831,7 @@
         <v>1604937599</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1838,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -1847,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>23</v>
@@ -1859,16 +1863,16 @@
         <v>91</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N17" s="14">
         <v>1</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>88</v>
@@ -1886,7 +1890,7 @@
         <v>1604937599</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -1897,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -1906,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H18" s="8">
         <v>1</v>
@@ -1918,7 +1922,28 @@
         <v>27</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="15">
+        <v>44152.3125</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1606176000</v>
+      </c>
+      <c r="T18" s="15">
+        <v>44159.999988425923</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -1929,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -1938,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>23</v>
@@ -1947,10 +1972,31 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="17" t="s">
         <v>106</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="15">
+        <v>44152.3125</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1606176000</v>
+      </c>
+      <c r="T19" s="15">
+        <v>44159.999988425923</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
